--- a/data/secar_monthly_data_means.xlsx
+++ b/data/secar_monthly_data_means.xlsx
@@ -873,28 +873,28 @@
         <v>43830.36363636363</v>
       </c>
       <c r="C13" t="n">
-        <v>13.57525521633385</v>
+        <v>13.01988972743094</v>
       </c>
       <c r="D13" t="n">
-        <v>18.62695852534562</v>
+        <v>17.98727598566308</v>
       </c>
       <c r="E13" t="n">
-        <v>9.536059907834101</v>
+        <v>8.944922341696536</v>
       </c>
       <c r="F13" t="n">
-        <v>79.03811443932412</v>
+        <v>78.21751029228457</v>
       </c>
       <c r="G13" t="n">
-        <v>9.797236814705435</v>
+        <v>9.086531246184331</v>
       </c>
       <c r="H13" t="n">
-        <v>2.315986623143881</v>
+        <v>2.584027296139922</v>
       </c>
       <c r="I13" t="n">
-        <v>1020.249003136201</v>
+        <v>1020.58496752003</v>
       </c>
       <c r="J13" t="n">
-        <v>47.09090909090909</v>
+        <v>48.94545454545455</v>
       </c>
     </row>
   </sheetData>

--- a/data/secar_monthly_data_means.xlsx
+++ b/data/secar_monthly_data_means.xlsx
@@ -873,25 +873,25 @@
         <v>43830.36363636363</v>
       </c>
       <c r="C13" t="n">
-        <v>13.01988972743094</v>
+        <v>12.97899305555556</v>
       </c>
       <c r="D13" t="n">
-        <v>17.98727598566308</v>
+        <v>18.01612903225806</v>
       </c>
       <c r="E13" t="n">
-        <v>8.944922341696536</v>
+        <v>8.890322580645162</v>
       </c>
       <c r="F13" t="n">
-        <v>78.21751029228457</v>
+        <v>78.32301075268816</v>
       </c>
       <c r="G13" t="n">
-        <v>9.086531246184331</v>
+        <v>9.067174986748448</v>
       </c>
       <c r="H13" t="n">
-        <v>2.584027296139922</v>
+        <v>2.562907482078853</v>
       </c>
       <c r="I13" t="n">
-        <v>1020.58496752003</v>
+        <v>1020.777132392473</v>
       </c>
       <c r="J13" t="n">
         <v>48.94545454545455</v>

--- a/data/secar_monthly_data_means.xlsx
+++ b/data/secar_monthly_data_means.xlsx
@@ -496,31 +496,31 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>43496.0909090909</v>
+        <v>43678.75</v>
       </c>
       <c r="C2" t="n">
-        <v>11.07070267885728</v>
+        <v>11.65254131139164</v>
       </c>
       <c r="D2" t="n">
-        <v>16.56774193548387</v>
+        <v>17.06538978494624</v>
       </c>
       <c r="E2" t="n">
-        <v>6.878494623655914</v>
+        <v>7.585954301075269</v>
       </c>
       <c r="F2" t="n">
-        <v>75.76362893315536</v>
+        <v>75.92416019193001</v>
       </c>
       <c r="G2" t="n">
-        <v>6.768315249258166</v>
+        <v>7.364546622128809</v>
       </c>
       <c r="H2" t="n">
-        <v>2.770468539823378</v>
+        <v>2.710391087407216</v>
       </c>
       <c r="I2" t="n">
-        <v>1023.555015101386</v>
+        <v>1022.681896660034</v>
       </c>
       <c r="J2" t="n">
-        <v>46.9</v>
+        <v>43.04166666666666</v>
       </c>
     </row>
     <row r="3">
@@ -873,7 +873,7 @@
         <v>43830.36363636363</v>
       </c>
       <c r="C13" t="n">
-        <v>12.97899305555556</v>
+        <v>12.97842741935484</v>
       </c>
       <c r="D13" t="n">
         <v>18.01612903225806</v>
@@ -882,19 +882,19 @@
         <v>8.890322580645162</v>
       </c>
       <c r="F13" t="n">
-        <v>78.32301075268816</v>
+        <v>78.32297267025089</v>
       </c>
       <c r="G13" t="n">
-        <v>9.067174986748448</v>
+        <v>9.066927674920491</v>
       </c>
       <c r="H13" t="n">
-        <v>2.562907482078853</v>
+        <v>2.558305331541219</v>
       </c>
       <c r="I13" t="n">
-        <v>1020.777132392473</v>
+        <v>1020.777962589606</v>
       </c>
       <c r="J13" t="n">
-        <v>48.94545454545455</v>
+        <v>48.98181818181818</v>
       </c>
     </row>
   </sheetData>

--- a/data/secar_monthly_data_means.xlsx
+++ b/data/secar_monthly_data_means.xlsx
@@ -499,28 +499,28 @@
         <v>43678.75</v>
       </c>
       <c r="C2" t="n">
-        <v>11.65254131139164</v>
+        <v>11.27316440138434</v>
       </c>
       <c r="D2" t="n">
-        <v>17.06538978494624</v>
+        <v>16.5658064516129</v>
       </c>
       <c r="E2" t="n">
-        <v>7.585954301075269</v>
+        <v>7.177620967741936</v>
       </c>
       <c r="F2" t="n">
-        <v>75.92416019193001</v>
+        <v>75.55626456385119</v>
       </c>
       <c r="G2" t="n">
-        <v>7.364546622128809</v>
+        <v>6.924969674491517</v>
       </c>
       <c r="H2" t="n">
-        <v>2.710391087407216</v>
+        <v>2.792775075844545</v>
       </c>
       <c r="I2" t="n">
-        <v>1022.681896660034</v>
+        <v>1023.073500909373</v>
       </c>
       <c r="J2" t="n">
-        <v>43.04166666666666</v>
+        <v>44.20833333333334</v>
       </c>
     </row>
     <row r="3">
